--- a/Templates/transmittal1.xlsx
+++ b/Templates/transmittal1.xlsx
@@ -153,7 +153,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +247,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -424,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -509,65 +522,42 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -577,54 +567,81 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -898,7 +915,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -908,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:I30"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,14 +973,14 @@
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -973,8 +990,8 @@
       <c r="D10" s="29"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="85"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
@@ -982,74 +999,74 @@
       <c r="A11" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="59"/>
+      <c r="C11" s="75"/>
       <c r="D11" s="33"/>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="79">
+      <c r="F11" s="86">
         <f ca="1">TODAY()</f>
-        <v>42608</v>
-      </c>
-      <c r="G11" s="63"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="46"/>
+        <v>42609</v>
+      </c>
+      <c r="G11" s="86"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="83"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="55"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="81"/>
       <c r="L12" s="5"/>
       <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="48"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="55"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
       <c r="L13" s="5"/>
       <c r="N13" s="5"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="50"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="55"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
       <c r="L14" s="5"/>
       <c r="N14" s="5"/>
     </row>
@@ -1058,14 +1075,14 @@
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="62"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="68"/>
       <c r="L15" s="5"/>
       <c r="N15" s="5"/>
     </row>
@@ -1115,10 +1132,10 @@
       </c>
       <c r="C20" s="36"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="56" t="s">
+      <c r="E20" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="57"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="39"/>
       <c r="H20" s="40"/>
       <c r="I20" s="36" t="s">
@@ -1218,15 +1235,15 @@
       <c r="B27" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="53"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="71"/>
       <c r="J27" s="30" t="s">
         <v>7</v>
       </c>
@@ -1234,97 +1251,97 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="42"/>
       <c r="B28" s="43"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="84"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="63"/>
       <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
       <c r="B29" s="43"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="84"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="63"/>
       <c r="J29" s="43"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>
       <c r="B30" s="43"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="84"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="63"/>
       <c r="J30" s="43"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
       <c r="B31" s="43"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="84"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="63"/>
       <c r="J31" s="43"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
       <c r="B32" s="43"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="84"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="63"/>
       <c r="J32" s="43"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
       <c r="B33" s="43"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="84"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="63"/>
       <c r="J33" s="43"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
       <c r="B34" s="43"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="84"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="63"/>
       <c r="J34" s="43"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
       <c r="B35" s="43"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="84"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="63"/>
       <c r="J35" s="43"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1360,16 +1377,16 @@
       </c>
       <c r="C38" s="37"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="67" t="s">
+      <c r="E38" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="67"/>
+      <c r="F38" s="60"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="65" t="s">
+      <c r="H38" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
@@ -1378,16 +1395,16 @@
       </c>
       <c r="C39" s="37"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="67" t="s">
+      <c r="E39" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="67"/>
+      <c r="F39" s="60"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="65" t="s">
+      <c r="H39" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
@@ -1396,16 +1413,16 @@
       </c>
       <c r="C40" s="37"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="67" t="s">
+      <c r="E40" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="67"/>
+      <c r="F40" s="60"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="65" t="s">
+      <c r="H40" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
@@ -1414,8 +1431,8 @@
       </c>
       <c r="C41" s="37"/>
       <c r="D41" s="35"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
@@ -1428,12 +1445,12 @@
       </c>
       <c r="C42" s="37"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="56" t="s">
+      <c r="E42" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
       <c r="I42" s="41"/>
       <c r="J42" s="18"/>
     </row>
@@ -1450,66 +1467,66 @@
       <c r="J43" s="18"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="68" t="s">
+      <c r="A44" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="70"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="48"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="71"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="73"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="51"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="73"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="51"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="71"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="73"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="51"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="74"/>
-      <c r="B48" s="75"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="75"/>
-      <c r="J48" s="76"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="54"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
@@ -1529,15 +1546,13 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A44:J48"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="C33:I33"/>
     <mergeCell ref="C34:I34"/>
     <mergeCell ref="C35:I35"/>
@@ -1551,13 +1566,15 @@
     <mergeCell ref="C30:I30"/>
     <mergeCell ref="C31:I31"/>
     <mergeCell ref="C32:I32"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A44:J48"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0.11904761904761904" top="0.25" bottom="0.25" header="0" footer="0.25"/>

--- a/Templates/transmittal1.xlsx
+++ b/Templates/transmittal1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="13200"/>
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Re:</t>
   </si>
@@ -58,45 +58,6 @@
     <t>CONTRACTOR ADDRESS</t>
   </si>
   <si>
-    <t xml:space="preserve">CONSTRACOT PHONE NO. </t>
-  </si>
-  <si>
-    <t>FOR YOUR APPROVAL</t>
-  </si>
-  <si>
-    <t>FOR YOUR USE</t>
-  </si>
-  <si>
-    <t>AS REQUESTED</t>
-  </si>
-  <si>
-    <t>FOR REVIEW AND COMMENT</t>
-  </si>
-  <si>
-    <t>FOR BIDS DUE</t>
-  </si>
-  <si>
-    <t>APPROVED AS SUBMITTED</t>
-  </si>
-  <si>
-    <t>APPROVED AS NOTED</t>
-  </si>
-  <si>
-    <t>RETURNED FOR CORRECTIONS</t>
-  </si>
-  <si>
-    <t>PRINTS RETURNED AFTER LOAN TO US</t>
-  </si>
-  <si>
-    <t>RESUBMIT COPIES FOR APPROVAL</t>
-  </si>
-  <si>
-    <t>SUBMIT COPIES FOR DISTRIBUTION</t>
-  </si>
-  <si>
-    <t>RETURNED CORRECTED PRINTS</t>
-  </si>
-  <si>
     <t>THESE ARE TRANSMITTED as checked below:</t>
   </si>
   <si>
@@ -112,37 +73,100 @@
     <t xml:space="preserve">PROJECT MANAGER NAME </t>
   </si>
   <si>
-    <t xml:space="preserve">  ATTACHED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  SHOP DRAWINGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  SAMPLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  CHANGE ORDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  UNDER SEPARATE COVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PRINTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  SPECIFICATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  THE FOLLOWING ITEMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PLANS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  COPY OF LETTER</t>
-  </si>
-  <si>
     <t>LETTER OF TRANSMITTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Under Separate Cover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Prints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Specifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Plans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Copy of Letter</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Customer Loyalty </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">through </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Client Satisfaction</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  Attached</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Shop Drawings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Change Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  For your use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  For approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  As requested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  For review and comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  For bids due</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Approved as submitted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Approved as noted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Returned for corrections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Prints returned after loan to us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Resubmit copies for approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Submit copies for distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Returned corrected prints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  the following items:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTRACTOR PHONE NO. </t>
   </si>
 </sst>
 </file>
@@ -153,7 +177,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,14 +252,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial Black"/>
@@ -254,9 +270,29 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
+      <u/>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -269,7 +305,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -417,17 +453,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -437,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -455,14 +480,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -470,9 +488,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -481,10 +496,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -499,149 +510,165 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -915,7 +942,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -923,17 +950,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:N49"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A5:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:G11"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
@@ -945,144 +975,144 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
+      <c r="E9" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="85"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="38"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="73" t="s">
+      <c r="C11" s="61"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="86">
+      <c r="F11" s="62">
         <f ca="1">TODAY()</f>
-        <v>42609</v>
-      </c>
-      <c r="G11" s="86"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="83"/>
+        <v>42611</v>
+      </c>
+      <c r="G11" s="63"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="76" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="72" t="s">
+      <c r="C12" s="56"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="81"/>
+      <c r="F12" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="68"/>
       <c r="L12" s="5"/>
       <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="76" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="72" t="s">
+      <c r="C13" s="56"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="65"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
       <c r="L13" s="5"/>
       <c r="N13" s="5"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
       <c r="L14" s="5"/>
       <c r="N14" s="5"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="66" t="s">
+      <c r="E15" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="75"/>
       <c r="L15" s="5"/>
       <c r="N15" s="5"/>
     </row>
@@ -1126,433 +1156,440 @@
       <c r="J18" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="36" t="s">
-        <v>37</v>
+      <c r="A20" s="15"/>
+      <c r="B20" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="72"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="44" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="39"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="32"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="36"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="36"/>
-      <c r="J22" s="18"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="44"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="29"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="36"/>
-      <c r="J23" s="18"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="44"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="29"/>
+      <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="30" t="s">
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="43"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="35"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="43"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="43"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="35"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="43"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="35"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="43"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="35"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="43"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="35"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="43"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="35"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="43"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="35"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
+      <c r="A36" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="37" t="s">
+      <c r="A38" s="17"/>
+      <c r="B38" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="41"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="88"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38" s="87"/>
+      <c r="J38" s="87"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="41"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="88"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" s="87"/>
+      <c r="J39" s="87"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
+      <c r="B40" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="41"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="88"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="87"/>
+      <c r="J40" s="87"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+      <c r="B41" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="41"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+      <c r="B42" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="41"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="16"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="60"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="37" t="s">
+      <c r="B44" s="77"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="78"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="79"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="81"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="79"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="81"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="79"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="81"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="82"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="84"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="60"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="58" t="s">
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G50" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="60"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="37"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="18"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="48"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="51"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="51"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="51"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="52"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="54"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A44:J48"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
     <mergeCell ref="C33:I33"/>
     <mergeCell ref="C34:I34"/>
     <mergeCell ref="C35:I35"/>
@@ -1566,19 +1603,17 @@
     <mergeCell ref="C30:I30"/>
     <mergeCell ref="C31:I31"/>
     <mergeCell ref="C32:I32"/>
-    <mergeCell ref="A44:J48"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0.11904761904761904" top="0.25" bottom="0.25" header="0" footer="0.25"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins left="0" right="1.2254901960784314E-2" top="0.25" bottom="0.25" header="0" footer="0.25"/>
+  <pageSetup orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
